--- a/2018-03 udar/refs.xlsx
+++ b/2018-03 udar/refs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15500" yWindow="7440" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="28220" yWindow="300" windowWidth="21120" windowHeight="13360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>1.  Зобова А. А., Татаринов Я. В. Динамика экипажа с роликонесущими колесами // ПММ. 2009. Т. 73, No 1. С. 13–22.</t>
   </si>
@@ -72,51 +72,9 @@
     <t>ТРУДЫ</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S0921889016306327?via%3Dihub</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/abs/pii/S0957415815002202</t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.org/document/7021920/</t>
-  </si>
-  <si>
-    <t>https://www.cambridge.org/core/journals/robotica/article/dynamics-and-vibration-analysis-of-the-interface-between-a-nonrigid-sphere-and-omnidirectional-wheel-actuators/9E9394B514856185941A8057A051BB72</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/scholar_lookup?title=Structural%20Properties%20and%20Classification%20of%20Kinematic%20and%20Dynamic%20Models%20of%20Wheeled%20Mobile%20Robots&amp;author=G.%20Campion&amp;author=G.%20Bastin&amp;author=B.%20d%E2%80%99Andr%C3%A9a-Novel&amp;journal=IEEE%20Trans.%20Robot.%20Autom.&amp;volume=12&amp;issue=1&amp;pages=47-62&amp;publication_year=1996</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1134/S1560354715020033</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1134/S1560354715040036</t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.org/abstract/document/8250141/</t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.org/abstract/document/5980491/</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/scholar_lookup?title=The%20Dynamics%20and%20Control%20of%20a%20Spherical%20Robot%20with%20an%20Internal%20Omniwheel%20Platform&amp;author=Yu%20L.%20Karavaev&amp;author=AA.%20Kilin&amp;journal=Regul.%20Chaotic%20Dyn.&amp;volume=20&amp;issue=2&amp;pages=134-152&amp;publication_year=2015</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/chapter/10.1007/978-3-319-32552-1_24</t>
-  </si>
-  <si>
-    <t>https://www.inderscienceonline.com/doi/abs/10.1504/IJAMECHS.2015.074788</t>
-  </si>
-  <si>
     <t>https://patents.google.com/patent/US9919557B2/en</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/abstract/document/7353480/</t>
-  </si>
-  <si>
     <t>https://patents.google.com/patent/US20180050563A1/en</t>
   </si>
   <si>
@@ -126,20 +84,141 @@
     <t>https://www.researchgate.net/profile/Krishnaraj_Jayabalan/publication/319154307_A_Mecanum_Wheel_Based_Robot_Platform_for_Warehouse_Automation/links/59957469a6fdccaded25537b/A-Mecanum-Wheel-Based-Robot-Platform-for-Warehouse-Automation.pdf</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/abstract/document/8226711/</t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.org/abstract/document/7888113/</t>
+    <t>http://trudymai.ru/published.php?ID=33459</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.robot.2017.04.002</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.mechatronics.2015.12.004</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/TCST.2015.2388734</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1017/S0263574714001088</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/70.481750</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1560354715020033</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1134/S1560354715040036</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/IRIS.2017.8250141</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ICRA.2011.5980491</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-319-32552-1_24</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1504/IJAMECHS.2015.074788</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/IROS.2015.7353480</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ICCEREC.2017.8226711</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ICAEES.2016.7888113</t>
+  </si>
+  <si>
+    <t>Szayer2017</t>
+  </si>
+  <si>
+    <t>KalmrNagy2016</t>
+  </si>
+  <si>
+    <t>Huang2015</t>
+  </si>
+  <si>
+    <t>Weiss2014</t>
+  </si>
+  <si>
+    <t>Campion1996</t>
+  </si>
+  <si>
+    <t>Karavaev2015</t>
+  </si>
+  <si>
+    <t>Ivanov2015</t>
+  </si>
+  <si>
+    <t>Field2017</t>
+  </si>
+  <si>
+    <t>QiangZhan2011</t>
+  </si>
+  <si>
+    <t>Chung2016</t>
+  </si>
+  <si>
+    <t>Kanjanawanishkul2015</t>
+  </si>
+  <si>
+    <t>Vicente2015</t>
+  </si>
+  <si>
+    <t>Bramanta2017</t>
+  </si>
+  <si>
+    <t>BinMohamed2016</t>
+  </si>
+  <si>
+    <t>hardware</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>overview, comparison</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>ball, hardware</t>
+  </si>
+  <si>
+    <t>vibration classification</t>
+  </si>
+  <si>
+    <t>Salam2010</t>
+  </si>
+  <si>
+    <t>Krishnaraj2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,13 +241,197 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="93">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -511,20 +774,20 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <f>COUNTA(A3:A28)</f>
-        <v>26</v>
+        <f>COUNTA(A3:A30)</f>
+        <v>27</v>
       </c>
       <c r="B1">
-        <f>SUM(B3:B28)/$A$1*100</f>
-        <v>46.153846153846153</v>
+        <f>SUM(B3:B30)/$A$1*100</f>
+        <v>55.555555555555557</v>
       </c>
       <c r="C1">
-        <f>SUM(C3:C28)/$A$1*100</f>
-        <v>19.230769230769234</v>
+        <f t="shared" ref="C1:D1" si="0">SUM(C3:C30)/$A$1*100</f>
+        <v>18.518518518518519</v>
       </c>
       <c r="D1">
-        <f>SUM(D3:D28)/$A$1*100</f>
-        <v>3.8461538461538463</v>
+        <f t="shared" si="0"/>
+        <v>3.7037037037037033</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -725,7 +988,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -737,9 +1000,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -750,10 +1013,20 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="str">
+        <f>CONCATENATE("https://sci-hub.tw/", A17)</f>
+        <v>https://sci-hub.tw/https://doi.org/10.1134/S1560354715040036</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -764,10 +1037,20 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="str">
+        <f>CONCATENATE("https://sci-hub.tw/", A18)</f>
+        <v>https://sci-hub.tw/https://doi.org/10.1134/S1560354715020033</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -778,10 +1061,20 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="str">
+        <f>CONCATENATE("https://sci-hub.tw/", A19)</f>
+        <v>https://sci-hub.tw/https://doi.org/10.1017/S0263574714001088</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -792,10 +1085,20 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="str">
+        <f>CONCATENATE("https://sci-hub.tw/", A20)</f>
+        <v>https://sci-hub.tw/https://doi.org/10.1109/ICRA.2011.5980491</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -806,10 +1109,20 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="str">
+        <f>CONCATENATE("https://sci-hub.tw/", A21)</f>
+        <v>https://sci-hub.tw/https://doi.org/10.1109/ICCEREC.2017.8226711</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -820,8 +1133,18 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="str">
+        <f>CONCATENATE("https://sci-hub.tw/", A22)</f>
+        <v>https://sci-hub.tw/https://doi.org/10.1109/IRIS.2017.8250141</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -834,10 +1157,20 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="str">
+        <f>CONCATENATE("https://sci-hub.tw/", A23)</f>
+        <v>https://sci-hub.tw/https://doi.org/10.1109/TCST.2015.2388734</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -848,82 +1181,218 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="str">
+        <f>CONCATENATE("https://sci-hub.tw/", A24)</f>
+        <v>https://sci-hub.tw/https://doi.org/10.1016/j.mechatronics.2015.12.004</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f>CONCATENATE("https://sci-hub.tw/", A25)</f>
+        <v>https://sci-hub.tw/https://doi.org/10.1016/j.robot.2017.04.002</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <f>CONCATENATE("https://sci-hub.tw/", A26)</f>
+        <v>https://sci-hub.tw/https://doi.org/10.1109/ICAEES.2016.7888113</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f>CONCATENATE("https://sci-hub.tw/", A27)</f>
+        <v>https://sci-hub.tw/https://doi.org/10.1109/70.481750</v>
+      </c>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <f>CONCATENATE("https://sci-hub.tw/", A28)</f>
+        <v>https://sci-hub.tw/https://doi.org/10.1007/978-3-319-32552-1_24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <f>CONCATENATE("https://sci-hub.tw/", A29)</f>
+        <v>https://sci-hub.tw/https://doi.org/10.1504/IJAMECHS.2015.074788</v>
+      </c>
+      <c r="F29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <f>CONCATENATE("https://sci-hub.tw/", A34)</f>
+        <v>https://sci-hub.tw/https://doi.org/10.1109/IROS.2015.7353480</v>
+      </c>
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A18:G37">
+    <sortCondition ref="G18:G37"/>
+    <sortCondition ref="F18:F37"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
